--- a/LAPEntries/LAP-CellMediaInoculation-OT2-2.0.0/VariablesPlateIncubation.xlsx
+++ b/LAPEntries/LAP-CellMediaInoculation-OT2-2.0.0/VariablesPlateIncubation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Documentos\LAPrepository\archivos_en_produccion\Cell_Media_Inoculation_LAP_files_v200\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC24C6A-2920-4068-ACAF-5EA64A177AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDEF0CE-3F5A-4291-BEEF-EB369A18E9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6274936-AB91-4DE5-B7DC-980916BA9E3D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A6274936-AB91-4DE5-B7DC-980916BA9E3D}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralVariables" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Value</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Samples per plate</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>API Name Right Pipette TipRack</t>
   </si>
   <si>
@@ -100,15 +97,9 @@
     <t>Only Media(s) Plate Creation</t>
   </si>
   <si>
-    <t>corning_96_wellplate_360ul_flat</t>
-  </si>
-  <si>
     <t>Change Tip In Media Distribution</t>
   </si>
   <si>
-    <t>never</t>
-  </si>
-  <si>
     <t>Number of Replicas</t>
   </si>
   <si>
@@ -139,43 +130,10 @@
     <t>Mixing Volume Before Sample Transfer (uL)</t>
   </si>
   <si>
-    <t>p300_multi_gen2</t>
-  </si>
-  <si>
-    <t>opentrons_96_tiprack_300ul</t>
-  </si>
-  <si>
-    <t>opentrons_15_tuberack_falcon_15ml_conical</t>
-  </si>
-  <si>
-    <t>p300_single_gen2</t>
-  </si>
-  <si>
-    <t>Plate Example1</t>
-  </si>
-  <si>
-    <t>Plate Example2</t>
-  </si>
-  <si>
-    <t>Amp, Km</t>
-  </si>
-  <si>
-    <t>Plate Example3</t>
-  </si>
-  <si>
-    <t>Amp</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>Km, Amp</t>
-  </si>
-  <si>
-    <t>tube</t>
+    <t>Plate 1</t>
+  </si>
+  <si>
+    <t>Plate 2</t>
   </si>
 </sst>
 </file>
@@ -253,13 +211,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BEEA2D3-075F-49A6-80AD-CAA59F0A2167}" name="Tabla2" displayName="Tabla2" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7" xr:uid="{1BEEA2D3-075F-49A6-80AD-CAA59F0A2167}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BEEA2D3-075F-49A6-80AD-CAA59F0A2167}" name="Tabla2" displayName="Tabla2" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{1BEEA2D3-075F-49A6-80AD-CAA59F0A2167}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{924A4AB6-BE9D-46E6-ACF2-48D8AB55BA98}" name="Variable Names"/>
-    <tableColumn id="2" xr3:uid="{CA055525-DC5C-481F-B7F4-FEF6E68053F7}" name="Plate Example1"/>
-    <tableColumn id="3" xr3:uid="{85C75FF7-82EC-4100-808C-9142B2398437}" name="Plate Example2"/>
-    <tableColumn id="4" xr3:uid="{7AAFE9DB-1214-434A-95D2-E54373D84E8E}" name="Plate Example3"/>
+    <tableColumn id="2" xr3:uid="{CA055525-DC5C-481F-B7F4-FEF6E68053F7}" name="Plate 1"/>
+    <tableColumn id="3" xr3:uid="{414F3AC8-ADE1-40CE-A3B9-32F54A73D38A}" name="Plate 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -565,7 +522,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,7 +533,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -586,117 +543,75 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="b">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="b">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -713,7 +628,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,7 +639,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -734,56 +649,35 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -797,90 +691,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCF27EF-3993-44C4-8594-ED7A911EE7C5}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>48</v>
-      </c>
-      <c r="D2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/LAPEntries/LAP-CellMediaInoculation-OT2-2.0.0/VariablesPlateIncubation.xlsx
+++ b/LAPEntries/LAP-CellMediaInoculation-OT2-2.0.0/VariablesPlateIncubation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Documentos\LAPrepository\archivos_en_produccion\Cell_Media_Inoculation_LAP_files_v200\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDEF0CE-3F5A-4291-BEEF-EB369A18E9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005D2DDD-E3BB-46D0-80A7-F133F936C724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A6274936-AB91-4DE5-B7DC-980916BA9E3D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Value</t>
   </si>
@@ -130,20 +130,29 @@
     <t>Mixing Volume Before Sample Transfer (uL)</t>
   </si>
   <si>
+    <t>Plate 2</t>
+  </si>
+  <si>
+    <t>Plate 3</t>
+  </si>
+  <si>
     <t>Plate 1</t>
-  </si>
-  <si>
-    <t>Plate 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -211,12 +220,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BEEA2D3-075F-49A6-80AD-CAA59F0A2167}" name="Tabla2" displayName="Tabla2" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7" xr:uid="{1BEEA2D3-075F-49A6-80AD-CAA59F0A2167}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BEEA2D3-075F-49A6-80AD-CAA59F0A2167}" name="Tabla2" displayName="Tabla2" ref="A1:D7" totalsRowShown="0">
+  <autoFilter ref="A1:D7" xr:uid="{1BEEA2D3-075F-49A6-80AD-CAA59F0A2167}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{924A4AB6-BE9D-46E6-ACF2-48D8AB55BA98}" name="Variable Names"/>
     <tableColumn id="2" xr3:uid="{CA055525-DC5C-481F-B7F4-FEF6E68053F7}" name="Plate 1"/>
     <tableColumn id="3" xr3:uid="{414F3AC8-ADE1-40CE-A3B9-32F54A73D38A}" name="Plate 2"/>
+    <tableColumn id="4" xr3:uid="{02DFE3EF-9A98-4EFE-83D3-1F176732F038}" name="Plate 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -522,7 +532,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,10 +701,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCF27EF-3993-44C4-8594-ED7A911EE7C5}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,48 +713,52 @@
     <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
